--- a/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
+++ b/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B11EB4A-1BF5-446E-A44F-953C4CE5FE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -311,11 +310,23 @@
     <t>CustNo=</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>findbyYear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearMonth&gt;= , AND YearMonth&lt;=</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearMonth Asc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -678,10 +689,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 4" xfId="4" xr:uid="{AA1A77B3-9617-456C-A4AF-01DAEDA5E12E}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2 4" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,23 +783,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -824,23 +818,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1016,11 +993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1482,12 +1459,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1542,6 +1519,17 @@
         <v>70</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1550,7 +1538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
